--- a/biology/Zoologie/Hemidactylus_biokoensis/Hemidactylus_biokoensis.xlsx
+++ b/biology/Zoologie/Hemidactylus_biokoensis/Hemidactylus_biokoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus biokoensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus biokoensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Bioko en Guinée équatoriale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Bioko en Guinée équatoriale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de bioko et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île de Bioko.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wagner, Leaché &amp; Fujita, 2014 : Description of four new West African forest geckos of the Hemidactylus fasciatus Gray, 1842 complex, revealed by coalescent species delimitation. Bonn zoological Bulletin, vol. 63, no 1, p. 1–14 (texte intégral).</t>
         </is>
